--- a/TCforYM.xlsx
+++ b/TCforYM.xlsx
@@ -1,17 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\GitHub\QATESTERGorokhova\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699967E-7E83-4C23-9A4D-C470F4817AC3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Александр Кобченко</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5E0155E4-B8E5-49DF-ADE9-31EB3B9D1D37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+предусловие: открытие страницы, но при этом в шагах мы начинаем с самого начала - с открытия сайта</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{743ADC2B-3DE2-4371-9782-E25B2A1609A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Аналогично, к тому же открытие вкладки "Отзывы" это уже явные шаги теста, но никак не предусловие</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Table 1</t>
   </si>
@@ -63,7 +130,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Calibri"/>
@@ -150,20 +217,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="15"/>
@@ -171,7 +230,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -182,13 +241,26 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +283,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -404,161 +482,194 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -760,7 +871,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -779,7 +890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,9 +1141,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1049,7 +1166,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1068,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,9 +1432,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1331,7 +1454,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1350,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1562,7 +1685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,7 +1711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,534 +1724,544 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I30"/>
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.4141" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6797" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.2344" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.9375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" ht="69.8" customHeight="1">
-      <c r="A3" s="7">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" ht="16.65" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="16">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="17">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="17">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" ht="30.65" customHeight="1">
-      <c r="A6" t="s" s="19">
+      <c r="D5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="20">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" ht="58.35" customHeight="1">
-      <c r="A7" t="s" s="21">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="22">
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="23">
+      <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" ht="58.35" customHeight="1">
-      <c r="A8" t="s" s="21">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="22">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="23">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="3">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" ht="100.65" customHeight="1">
-      <c r="A12" s="7">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="100.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s" s="10">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="10">
+      <c r="E12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" ht="16.35" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="26">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s" s="27">
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s" s="27">
+      <c r="C15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="30.65" customHeight="1">
-      <c r="A16" t="s" s="19">
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" ht="58.35" customHeight="1">
-      <c r="A17" t="s" s="21">
+      <c r="D16" s="28"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s" s="30">
+      <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s" s="23">
+      <c r="C17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" ht="44.35" customHeight="1">
-      <c r="A18" t="s" s="21">
+      <c r="D17" s="28"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s" s="30">
+      <c r="B18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s" s="23">
+      <c r="C18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" ht="72.35" customHeight="1">
-      <c r="A19" t="s" s="21">
+      <c r="D18" s="28"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="30">
+      <c r="B19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s" s="23">
+      <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="31">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B21" t="s" s="31">
+      <c r="B21" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s" s="31">
+      <c r="C21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s" s="31">
+      <c r="D21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s" s="32">
+      <c r="E21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F21" t="s" s="33">
+      <c r="F21" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" ht="58.65" customHeight="1">
-      <c r="A22" s="34">
+      <c r="G21" s="17"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s" s="10">
+      <c r="D22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s" s="10">
+      <c r="E22" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s" s="10">
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" ht="16.35" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" ht="16.65" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" ht="19" customHeight="1">
-      <c r="A25" t="s" s="26">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s" s="27">
+      <c r="B25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s" s="27">
+      <c r="C25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" ht="30.65" customHeight="1">
-      <c r="A26" t="s" s="19">
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s" s="8">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s" s="10">
+      <c r="C26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" ht="58.35" customHeight="1">
-      <c r="A27" t="s" s="21">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="58.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s" s="30">
+      <c r="B27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s" s="23">
+      <c r="C27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" ht="58.35" customHeight="1">
-      <c r="A28" t="s" s="21">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="58.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s" s="30">
+      <c r="B28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s" s="23">
+      <c r="C28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" ht="16.35" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" ht="16.35" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B16" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B26" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>